--- a/static/output/Student_list.xlsx
+++ b/static/output/Student_list.xlsx
@@ -418,7 +418,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2">
-        <v>43460.66851361035</v>
+        <v>43463.86978038244</v>
       </c>
     </row>
   </sheetData>
